--- a/Metodo Segundo Parcial/Trazadora cubica.xlsx
+++ b/Metodo Segundo Parcial/Trazadora cubica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521FAC4-12B2-403C-AEC1-7B0FC36E5D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9DCC7E-EB6E-4895-9287-FE1A102EDEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -313,7 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,9 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,6 +360,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA1CE62-19E7-6852-9820-E91CA6ADE4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="5629275"/>
+          <a:ext cx="4019550" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377D1A71-A44D-0DAA-115A-93BAC647B21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="5629275"/>
+          <a:ext cx="4019550" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A62F75-17D5-52C6-EA42-DE8074AD7BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="5819775"/>
+          <a:ext cx="3743325" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,7 +816,7 @@
   <dimension ref="B2:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,159 +829,159 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="18"/>
       <c r="O3" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>0</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="L4" s="21" t="s">
+      <c r="H4" s="9"/>
+      <c r="L4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="22"/>
-      <c r="R4" s="21" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="20"/>
+      <c r="R4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="3">
         <v>1</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>2.7181999999999999</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="3">
         <f>C5-C4</f>
         <v>1</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="L5" s="21">
+      <c r="H5" s="9"/>
+      <c r="L5" s="19">
         <v>1</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <f>(3/G6)*(D6-D5)-(3/G5)*(D5-D4)</f>
         <v>8.8580999999999985</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="15"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>7.3891</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="3">
         <f>C6-C5</f>
         <v>1</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="L6" s="23">
+      <c r="H6" s="9"/>
+      <c r="L6" s="21">
         <v>2</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="23">
         <f>(3/G7)*(D7-D6)-(3/G6)*(D6-D5)</f>
         <v>24.076500000000006</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="22">
         <v>0</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>3</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>20.0855</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <f>C7-C6</f>
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U12" t="s">
@@ -839,22 +1023,22 @@
       <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <f>D20-D19*H16</f>
         <v>5.8298600000000018</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="9"/>
       <c r="W14" t="s">
         <v>47</v>
       </c>
@@ -863,67 +1047,67 @@
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>G6/D14</f>
         <v>0.25</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="20">
         <f>(D7-D6)/G7-G7*(H16+2*M14)/3</f>
         <v>8.809826666666666</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>(N5-S5*S6)/D14</f>
         <v>2.2145249999999996</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <f>(H16-M14)/(3*G7)</f>
         <v>-1.9432866666666673</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
@@ -935,12 +1119,12 @@
       <c r="P17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
@@ -951,65 +1135,65 @@
         <f>2*(C7-C5)-D15*G6</f>
         <v>3.75</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="18">
         <f>D16-D15*M14</f>
         <v>0.75705999999999918</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f>G7/D18</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <f>(D6-D5)/G6-(G7*(M14+2*M18))/3</f>
         <v>2.2229066666666664</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f>(N6-(G6*D16))/D18</f>
         <v>5.8298600000000018</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="21"/>
+      <c r="L20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="23">
         <f>(M14-M18)/(3*G6)</f>
         <v>1.6909333333333343</v>
       </c>
@@ -1026,38 +1210,39 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="16"/>
+      <c r="L22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="18">
         <f>S6-S5*M18</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <f>(D5-D4)/G5-(G6*(M18+2*M22))/3</f>
         <v>1.465846666666667</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="23"/>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="23">
         <f>(M18-M22)/(3*G5)</f>
         <v>0.25235333333333304</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>